--- a/DragAndDrop/Assets/5.Data/HyeongSeok_stage1_data.xlsx
+++ b/DragAndDrop/Assets/5.Data/HyeongSeok_stage1_data.xlsx
@@ -260,7 +260,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -269,7 +269,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -549,10 +549,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1143,6 +1143,72 @@
         <v>0</v>
       </c>
     </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>28.5</v>
+      </c>
+      <c r="B50" s="2">
+        <v>3</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>28.87</v>
+      </c>
+      <c r="B51" s="2">
+        <v>3</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>29.52</v>
+      </c>
+      <c r="B52" s="2">
+        <v>3</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>30</v>
+      </c>
+      <c r="B53" s="2">
+        <v>3</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>30.37</v>
+      </c>
+      <c r="B54" s="2">
+        <v>3</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>31.021999999999998</v>
+      </c>
+      <c r="B55" s="2">
+        <v>3</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>

--- a/DragAndDrop/Assets/5.Data/HyeongSeok_stage1_data.xlsx
+++ b/DragAndDrop/Assets/5.Data/HyeongSeok_stage1_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>time</t>
   </si>
@@ -29,12 +29,28 @@
   <si>
     <t>simple_pattern_type</t>
   </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>rans</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -43,6 +59,13 @@
     <font>
       <sz val="8"/>
       <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -69,7 +92,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -77,6 +100,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -549,17 +573,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -573,15 +597,21 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0.75</v>
       </c>
       <c r="B2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -590,9 +620,12 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="B3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E3" s="1"/>
@@ -602,9 +635,12 @@
         <v>1.3149999999999999</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E4" s="1"/>
@@ -614,9 +650,12 @@
         <v>1.5</v>
       </c>
       <c r="B5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E5" s="1"/>
@@ -626,9 +665,12 @@
         <v>2.06</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E6" s="1"/>
@@ -638,9 +680,12 @@
         <v>2.25</v>
       </c>
       <c r="B7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E7" s="1"/>
@@ -650,9 +695,12 @@
         <v>3</v>
       </c>
       <c r="B8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E8" s="1"/>
@@ -662,9 +710,12 @@
         <v>3.75</v>
       </c>
       <c r="B9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E9" s="1"/>
@@ -674,9 +725,12 @@
         <v>4.12</v>
       </c>
       <c r="B10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E10" s="1"/>
@@ -686,9 +740,12 @@
         <v>4.3099999999999996</v>
       </c>
       <c r="B11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E11" s="1"/>
@@ -698,10 +755,13 @@
         <v>4.5</v>
       </c>
       <c r="B12" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
+      </c>
+      <c r="D12" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -710,9 +770,12 @@
         <v>5.0599999999999996</v>
       </c>
       <c r="B13" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E13" s="1"/>
@@ -722,9 +785,12 @@
         <v>5.25</v>
       </c>
       <c r="B14" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E14" s="1"/>
@@ -734,10 +800,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
+      </c>
+      <c r="D15" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -746,201 +815,253 @@
         <v>6.75</v>
       </c>
       <c r="B16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
       </c>
+      <c r="D16" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>7.125</v>
       </c>
       <c r="B17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
       </c>
+      <c r="D17" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>7.31</v>
       </c>
       <c r="B18" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
       </c>
+      <c r="D18" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>7.5</v>
       </c>
       <c r="B19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
       </c>
+      <c r="D19" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>8.06</v>
       </c>
       <c r="B20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
       </c>
+      <c r="D20" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>8.25</v>
       </c>
       <c r="B21" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
       </c>
+      <c r="D21" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>9</v>
       </c>
       <c r="B22" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
       </c>
+      <c r="D22" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>9.75</v>
       </c>
       <c r="B23" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
       </c>
+      <c r="D23" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>10.119999999999999</v>
       </c>
       <c r="B24" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="2">
         <v>0</v>
       </c>
+      <c r="D24" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>10.315</v>
       </c>
       <c r="B25" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
       </c>
+      <c r="D25" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>10.5</v>
       </c>
       <c r="B26" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" s="2">
         <v>0</v>
       </c>
+      <c r="D26" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>11.06</v>
       </c>
       <c r="B27" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
       </c>
+      <c r="D27" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>11.25</v>
       </c>
       <c r="B28" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" s="2">
         <v>0</v>
       </c>
+      <c r="D28" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>12</v>
       </c>
       <c r="B29" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" s="2">
         <v>0</v>
       </c>
+      <c r="D29" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>12.75</v>
       </c>
       <c r="B30" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" s="2">
         <v>0</v>
       </c>
+      <c r="D30" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>13.12</v>
       </c>
       <c r="B31" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" s="2">
         <v>0</v>
       </c>
+      <c r="D31" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>13.315</v>
       </c>
       <c r="B32" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E32" s="1"/>
@@ -950,10 +1071,13 @@
         <v>13.5</v>
       </c>
       <c r="B33" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" s="2">
         <v>0</v>
+      </c>
+      <c r="D33" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="E33" s="1"/>
     </row>
@@ -962,9 +1086,12 @@
         <v>14.06</v>
       </c>
       <c r="B34" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E34" s="1"/>
@@ -974,9 +1101,12 @@
         <v>14.25</v>
       </c>
       <c r="B35" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35" s="2">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E35" s="1"/>
@@ -985,11 +1115,14 @@
       <c r="A36" s="1">
         <v>15</v>
       </c>
-      <c r="B36" s="1">
-        <v>1</v>
+      <c r="B36" s="2">
+        <v>2</v>
       </c>
       <c r="C36" s="1">
         <v>0</v>
+      </c>
+      <c r="D36" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="E36" s="1"/>
     </row>
@@ -998,9 +1131,12 @@
         <v>15.75</v>
       </c>
       <c r="B37" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" s="2">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E37" s="1"/>
@@ -1010,9 +1146,12 @@
         <v>16.12</v>
       </c>
       <c r="B38" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38" s="2">
+        <v>0</v>
+      </c>
+      <c r="D38" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E38" s="1"/>
@@ -1022,9 +1161,12 @@
         <v>16.315000000000001</v>
       </c>
       <c r="B39" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39" s="2">
+        <v>0</v>
+      </c>
+      <c r="D39" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E39" s="1"/>
@@ -1034,9 +1176,12 @@
         <v>16.5</v>
       </c>
       <c r="B40" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40" s="2">
+        <v>0</v>
+      </c>
+      <c r="D40" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E40" s="1"/>
@@ -1046,9 +1191,12 @@
         <v>17.059999999999999</v>
       </c>
       <c r="B41" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" s="2">
+        <v>0</v>
+      </c>
+      <c r="D41" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E41" s="1"/>
@@ -1058,9 +1206,12 @@
         <v>17.25</v>
       </c>
       <c r="B42" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42" s="2">
+        <v>0</v>
+      </c>
+      <c r="D42" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E42" s="1"/>
@@ -1070,9 +1221,12 @@
         <v>18</v>
       </c>
       <c r="B43" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E43" s="1"/>
@@ -1082,9 +1236,12 @@
         <v>25.5</v>
       </c>
       <c r="B44" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C44" s="2">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1093,9 +1250,12 @@
         <v>25.885000000000002</v>
       </c>
       <c r="B45" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C45" s="2">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1104,9 +1264,12 @@
         <v>26.25</v>
       </c>
       <c r="B46" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C46" s="2">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1115,9 +1278,12 @@
         <v>27</v>
       </c>
       <c r="B47" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C47" s="2">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1126,86 +1292,124 @@
         <v>27.37</v>
       </c>
       <c r="B48" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C48" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>28.02</v>
       </c>
       <c r="B49" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C49" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>28.5</v>
       </c>
       <c r="B50" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C50" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>28.87</v>
       </c>
       <c r="B51" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C51" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>29.52</v>
       </c>
       <c r="B52" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C52" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>30</v>
       </c>
       <c r="B53" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C53" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>30.37</v>
       </c>
       <c r="B54" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>31.021999999999998</v>
       </c>
       <c r="B55" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C55" s="2">
+        <v>0</v>
+      </c>
+      <c r="D55" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>31.5</v>
+      </c>
+      <c r="B56" s="2">
+        <v>4</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0</v>
+      </c>
+      <c r="D56" s="2" t="b">
         <v>0</v>
       </c>
     </row>

--- a/DragAndDrop/Assets/5.Data/HyeongSeok_stage1_data.xlsx
+++ b/DragAndDrop/Assets/5.Data/HyeongSeok_stage1_data.xlsx
@@ -30,19 +30,7 @@
     <t>simple_pattern_type</t>
   </si>
   <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>rans</t>
-    </r>
+    <t>action_num</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -573,10 +561,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -611,7 +599,7 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="b">
+      <c r="D2" s="2">
         <v>0</v>
       </c>
     </row>
@@ -625,7 +613,7 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="b">
+      <c r="D3" s="2">
         <v>0</v>
       </c>
       <c r="E3" s="1"/>
@@ -640,7 +628,7 @@
       <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="2" t="b">
+      <c r="D4" s="2">
         <v>0</v>
       </c>
       <c r="E4" s="1"/>
@@ -655,7 +643,7 @@
       <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="2" t="b">
+      <c r="D5" s="2">
         <v>0</v>
       </c>
       <c r="E5" s="1"/>
@@ -670,7 +658,7 @@
       <c r="C6" s="2">
         <v>0</v>
       </c>
-      <c r="D6" s="2" t="b">
+      <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="E6" s="1"/>
@@ -685,7 +673,7 @@
       <c r="C7" s="2">
         <v>0</v>
       </c>
-      <c r="D7" s="2" t="b">
+      <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="E7" s="1"/>
@@ -700,7 +688,7 @@
       <c r="C8" s="2">
         <v>0</v>
       </c>
-      <c r="D8" s="2" t="b">
+      <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="E8" s="1"/>
@@ -715,7 +703,7 @@
       <c r="C9" s="2">
         <v>0</v>
       </c>
-      <c r="D9" s="2" t="b">
+      <c r="D9" s="2">
         <v>0</v>
       </c>
       <c r="E9" s="1"/>
@@ -730,7 +718,7 @@
       <c r="C10" s="2">
         <v>0</v>
       </c>
-      <c r="D10" s="2" t="b">
+      <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="1"/>
@@ -745,7 +733,7 @@
       <c r="C11" s="2">
         <v>0</v>
       </c>
-      <c r="D11" s="2" t="b">
+      <c r="D11" s="2">
         <v>0</v>
       </c>
       <c r="E11" s="1"/>
@@ -755,13 +743,13 @@
         <v>4.5</v>
       </c>
       <c r="B12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
       </c>
-      <c r="D12" s="2" t="b">
-        <v>1</v>
+      <c r="D12" s="2">
+        <v>0</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -770,12 +758,12 @@
         <v>5.0599999999999996</v>
       </c>
       <c r="B13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
       </c>
-      <c r="D13" s="2" t="b">
+      <c r="D13" s="2">
         <v>0</v>
       </c>
       <c r="E13" s="1"/>
@@ -790,7 +778,7 @@
       <c r="C14" s="2">
         <v>0</v>
       </c>
-      <c r="D14" s="2" t="b">
+      <c r="D14" s="2">
         <v>0</v>
       </c>
       <c r="E14" s="1"/>
@@ -805,7 +793,7 @@
       <c r="C15" s="2">
         <v>0</v>
       </c>
-      <c r="D15" s="2" t="b">
+      <c r="D15" s="2">
         <v>1</v>
       </c>
       <c r="E15" s="1"/>
@@ -820,8 +808,8 @@
       <c r="C16" s="2">
         <v>0</v>
       </c>
-      <c r="D16" s="2" t="b">
-        <v>0</v>
+      <c r="D16" s="2">
+        <v>1</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -835,8 +823,8 @@
       <c r="C17" s="2">
         <v>0</v>
       </c>
-      <c r="D17" s="2" t="b">
-        <v>0</v>
+      <c r="D17" s="2">
+        <v>1</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -850,8 +838,8 @@
       <c r="C18" s="2">
         <v>0</v>
       </c>
-      <c r="D18" s="2" t="b">
-        <v>0</v>
+      <c r="D18" s="2">
+        <v>1</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -865,7 +853,7 @@
       <c r="C19" s="2">
         <v>0</v>
       </c>
-      <c r="D19" s="2" t="b">
+      <c r="D19" s="2">
         <v>1</v>
       </c>
       <c r="E19" s="1"/>
@@ -881,8 +869,8 @@
       <c r="C20" s="2">
         <v>0</v>
       </c>
-      <c r="D20" s="2" t="b">
-        <v>0</v>
+      <c r="D20" s="2">
+        <v>1</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -896,7 +884,7 @@
       <c r="C21" s="2">
         <v>0</v>
       </c>
-      <c r="D21" s="2" t="b">
+      <c r="D21" s="2">
         <v>0</v>
       </c>
       <c r="E21" s="1"/>
@@ -911,8 +899,8 @@
       <c r="C22" s="2">
         <v>0</v>
       </c>
-      <c r="D22" s="2" t="b">
-        <v>1</v>
+      <c r="D22" s="2">
+        <v>2</v>
       </c>
       <c r="E22" s="1"/>
     </row>
@@ -926,8 +914,8 @@
       <c r="C23" s="2">
         <v>0</v>
       </c>
-      <c r="D23" s="2" t="b">
-        <v>0</v>
+      <c r="D23" s="2">
+        <v>2</v>
       </c>
       <c r="E23" s="1"/>
     </row>
@@ -941,8 +929,8 @@
       <c r="C24" s="2">
         <v>0</v>
       </c>
-      <c r="D24" s="2" t="b">
-        <v>0</v>
+      <c r="D24" s="2">
+        <v>2</v>
       </c>
       <c r="E24" s="1"/>
     </row>
@@ -956,8 +944,8 @@
       <c r="C25" s="2">
         <v>0</v>
       </c>
-      <c r="D25" s="2" t="b">
-        <v>0</v>
+      <c r="D25" s="2">
+        <v>2</v>
       </c>
       <c r="E25" s="1"/>
     </row>
@@ -971,8 +959,8 @@
       <c r="C26" s="2">
         <v>0</v>
       </c>
-      <c r="D26" s="2" t="b">
-        <v>1</v>
+      <c r="D26" s="2">
+        <v>2</v>
       </c>
       <c r="E26" s="1"/>
     </row>
@@ -986,8 +974,8 @@
       <c r="C27" s="2">
         <v>0</v>
       </c>
-      <c r="D27" s="2" t="b">
-        <v>0</v>
+      <c r="D27" s="2">
+        <v>2</v>
       </c>
       <c r="E27" s="1"/>
     </row>
@@ -1001,7 +989,7 @@
       <c r="C28" s="2">
         <v>0</v>
       </c>
-      <c r="D28" s="2" t="b">
+      <c r="D28" s="2">
         <v>0</v>
       </c>
       <c r="E28" s="1"/>
@@ -1016,7 +1004,7 @@
       <c r="C29" s="2">
         <v>0</v>
       </c>
-      <c r="D29" s="2" t="b">
+      <c r="D29" s="2">
         <v>1</v>
       </c>
       <c r="E29" s="1"/>
@@ -1031,8 +1019,8 @@
       <c r="C30" s="2">
         <v>0</v>
       </c>
-      <c r="D30" s="2" t="b">
-        <v>0</v>
+      <c r="D30" s="2">
+        <v>1</v>
       </c>
       <c r="E30" s="1"/>
     </row>
@@ -1046,8 +1034,8 @@
       <c r="C31" s="2">
         <v>0</v>
       </c>
-      <c r="D31" s="2" t="b">
-        <v>0</v>
+      <c r="D31" s="2">
+        <v>1</v>
       </c>
       <c r="E31" s="1"/>
     </row>
@@ -1061,8 +1049,8 @@
       <c r="C32" s="2">
         <v>0</v>
       </c>
-      <c r="D32" s="2" t="b">
-        <v>0</v>
+      <c r="D32" s="2">
+        <v>1</v>
       </c>
       <c r="E32" s="1"/>
     </row>
@@ -1076,7 +1064,7 @@
       <c r="C33" s="2">
         <v>0</v>
       </c>
-      <c r="D33" s="2" t="b">
+      <c r="D33" s="2">
         <v>1</v>
       </c>
       <c r="E33" s="1"/>
@@ -1091,8 +1079,8 @@
       <c r="C34" s="2">
         <v>0</v>
       </c>
-      <c r="D34" s="2" t="b">
-        <v>0</v>
+      <c r="D34" s="2">
+        <v>1</v>
       </c>
       <c r="E34" s="1"/>
     </row>
@@ -1106,7 +1094,7 @@
       <c r="C35" s="2">
         <v>0</v>
       </c>
-      <c r="D35" s="2" t="b">
+      <c r="D35" s="2">
         <v>0</v>
       </c>
       <c r="E35" s="1"/>
@@ -1121,8 +1109,8 @@
       <c r="C36" s="1">
         <v>0</v>
       </c>
-      <c r="D36" s="2" t="b">
-        <v>1</v>
+      <c r="D36" s="2">
+        <v>2</v>
       </c>
       <c r="E36" s="1"/>
     </row>
@@ -1136,8 +1124,8 @@
       <c r="C37" s="2">
         <v>0</v>
       </c>
-      <c r="D37" s="2" t="b">
-        <v>0</v>
+      <c r="D37" s="2">
+        <v>2</v>
       </c>
       <c r="E37" s="1"/>
     </row>
@@ -1151,8 +1139,8 @@
       <c r="C38" s="2">
         <v>0</v>
       </c>
-      <c r="D38" s="2" t="b">
-        <v>0</v>
+      <c r="D38" s="2">
+        <v>2</v>
       </c>
       <c r="E38" s="1"/>
     </row>
@@ -1166,8 +1154,8 @@
       <c r="C39" s="2">
         <v>0</v>
       </c>
-      <c r="D39" s="2" t="b">
-        <v>0</v>
+      <c r="D39" s="2">
+        <v>2</v>
       </c>
       <c r="E39" s="1"/>
     </row>
@@ -1181,8 +1169,8 @@
       <c r="C40" s="2">
         <v>0</v>
       </c>
-      <c r="D40" s="2" t="b">
-        <v>0</v>
+      <c r="D40" s="2">
+        <v>2</v>
       </c>
       <c r="E40" s="1"/>
     </row>
@@ -1196,8 +1184,8 @@
       <c r="C41" s="2">
         <v>0</v>
       </c>
-      <c r="D41" s="2" t="b">
-        <v>0</v>
+      <c r="D41" s="2">
+        <v>2</v>
       </c>
       <c r="E41" s="1"/>
     </row>
@@ -1206,12 +1194,12 @@
         <v>17.25</v>
       </c>
       <c r="B42" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C42" s="2">
         <v>0</v>
       </c>
-      <c r="D42" s="2" t="b">
+      <c r="D42" s="2">
         <v>0</v>
       </c>
       <c r="E42" s="1"/>
@@ -1401,7 +1389,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="B56" s="2">
         <v>4</v>
@@ -1410,6 +1398,361 @@
         <v>0</v>
       </c>
       <c r="D56" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>31.88</v>
+      </c>
+      <c r="B57" s="2">
+        <v>4</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0</v>
+      </c>
+      <c r="D57" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>32.25</v>
+      </c>
+      <c r="B58" s="2">
+        <v>4</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0</v>
+      </c>
+      <c r="D58" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>33</v>
+      </c>
+      <c r="B59" s="2">
+        <v>4</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0</v>
+      </c>
+      <c r="D59" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>33.36</v>
+      </c>
+      <c r="B60" s="2">
+        <v>4</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0</v>
+      </c>
+      <c r="D60" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>34</v>
+      </c>
+      <c r="B61" s="2">
+        <v>4</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0</v>
+      </c>
+      <c r="D61" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>34.5</v>
+      </c>
+      <c r="B62" s="2">
+        <v>4</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0</v>
+      </c>
+      <c r="D62" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>34.85</v>
+      </c>
+      <c r="B63" s="2">
+        <v>4</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0</v>
+      </c>
+      <c r="D63" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>35.5</v>
+      </c>
+      <c r="B64" s="2">
+        <v>4</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0</v>
+      </c>
+      <c r="D64" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>36</v>
+      </c>
+      <c r="B65" s="2">
+        <v>4</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0</v>
+      </c>
+      <c r="D65" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="B66" s="2">
+        <v>4</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0</v>
+      </c>
+      <c r="D66" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>37</v>
+      </c>
+      <c r="B67" s="2">
+        <v>4</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0</v>
+      </c>
+      <c r="D67" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>37.4</v>
+      </c>
+      <c r="B68" s="2">
+        <v>4</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0</v>
+      </c>
+      <c r="D68" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>37.85</v>
+      </c>
+      <c r="B69" s="2">
+        <v>4</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0</v>
+      </c>
+      <c r="D69" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>38.25</v>
+      </c>
+      <c r="B70" s="2">
+        <v>4</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0</v>
+      </c>
+      <c r="D70" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="B71" s="2">
+        <v>4</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0</v>
+      </c>
+      <c r="D71" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>39.35</v>
+      </c>
+      <c r="B72" s="2">
+        <v>4</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0</v>
+      </c>
+      <c r="D72" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>40</v>
+      </c>
+      <c r="B73" s="2">
+        <v>4</v>
+      </c>
+      <c r="C73" s="2">
+        <v>0</v>
+      </c>
+      <c r="D73" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>40.85</v>
+      </c>
+      <c r="B74" s="2">
+        <v>4</v>
+      </c>
+      <c r="C74" s="2">
+        <v>0</v>
+      </c>
+      <c r="D74" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>41.5</v>
+      </c>
+      <c r="B75" s="2">
+        <v>4</v>
+      </c>
+      <c r="C75" s="2">
+        <v>0</v>
+      </c>
+      <c r="D75" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>42.35</v>
+      </c>
+      <c r="B76" s="2">
+        <v>4</v>
+      </c>
+      <c r="C76" s="2">
+        <v>0</v>
+      </c>
+      <c r="D76" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>43</v>
+      </c>
+      <c r="B77" s="2">
+        <v>4</v>
+      </c>
+      <c r="C77" s="2">
+        <v>0</v>
+      </c>
+      <c r="D77" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>43.5</v>
+      </c>
+      <c r="B78" s="2">
+        <v>4</v>
+      </c>
+      <c r="C78" s="2">
+        <v>0</v>
+      </c>
+      <c r="D78" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>44.05</v>
+      </c>
+      <c r="B79" s="2">
+        <v>4</v>
+      </c>
+      <c r="C79" s="2">
+        <v>0</v>
+      </c>
+      <c r="D79" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>44.4</v>
+      </c>
+      <c r="B80" s="2">
+        <v>4</v>
+      </c>
+      <c r="C80" s="2">
+        <v>0</v>
+      </c>
+      <c r="D80" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>44.8</v>
+      </c>
+      <c r="B81" s="2">
+        <v>4</v>
+      </c>
+      <c r="C81" s="2">
+        <v>0</v>
+      </c>
+      <c r="D81" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D82" s="2" t="b">
         <v>0</v>
       </c>
     </row>
